--- a/data/outputs/management_elsevier/51.xlsx
+++ b/data/outputs/management_elsevier/51.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS214"/>
+  <dimension ref="A1:BU214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84941286156</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>742</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84940748386</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1204</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1359,6 +1381,12 @@
           <t>2-s2.0-84941113951</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84941904597</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1811,12 @@
           <t>2-s2.0-84941929892</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>522</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1994,6 +2034,12 @@
           <t>2-s2.0-84941899769</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1702</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2209,6 +2255,12 @@
           <t>2-s2.0-84941953173</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>835</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2416,6 +2468,12 @@
           <t>2-s2.0-84942510851</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1741</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2639,6 +2697,12 @@
           <t>2-s2.0-84942526255</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>602</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2862,6 +2926,12 @@
           <t>2-s2.0-84942510801</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>771</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3077,6 +3147,12 @@
           <t>2-s2.0-84942523455</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>729</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3292,6 +3368,12 @@
           <t>2-s2.0-84942523433</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>503</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3495,6 +3577,12 @@
           <t>2-s2.0-84942514884</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1983</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3710,6 +3798,12 @@
           <t>2-s2.0-84942512010</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>638</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3935,6 +4029,12 @@
           <t>2-s2.0-84942748082</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4150,6 +4250,12 @@
           <t>2-s2.0-84942753854</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>482</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4357,6 +4463,12 @@
           <t>2-s2.0-84942789012</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>746</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4572,6 +4684,12 @@
           <t>2-s2.0-84944258650</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1407</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4905,12 @@
           <t>2-s2.0-84944197320</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>692</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5001,6 +5125,12 @@
         <is>
           <t>2-s2.0-84944883151</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>1892</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -5197,6 +5327,12 @@
           <t>2-s2.0-84945965203</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>370</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5404,6 +5540,12 @@
           <t>2-s2.0-84945343479</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>803</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5619,6 +5761,12 @@
           <t>2-s2.0-84945933921</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1696</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5834,6 +5982,12 @@
           <t>2-s2.0-84946405553</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>507</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6049,6 +6203,12 @@
           <t>2-s2.0-84946541994</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>454</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6256,6 +6416,12 @@
           <t>2-s2.0-84946556136</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>312</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6470,6 +6636,12 @@
         <is>
           <t>2-s2.0-84946843118</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>1289</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -6654,6 +6826,12 @@
           <t>2-s2.0-84952045947</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>194</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6877,6 +7055,12 @@
           <t>2-s2.0-84940479203</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2626</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7092,6 +7276,12 @@
           <t>2-s2.0-84941275676</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>778</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7311,6 +7501,12 @@
           <t>2-s2.0-84951968221</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1532</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7534,6 +7730,12 @@
           <t>2-s2.0-84942512259</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>522</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7741,6 +7943,12 @@
           <t>2-s2.0-84936887524</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>909</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7948,6 +8156,12 @@
           <t>2-s2.0-84934779847</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>944</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8155,6 +8369,12 @@
           <t>2-s2.0-84937151141</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>601</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8366,6 +8586,12 @@
           <t>2-s2.0-84937199986</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3378</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8577,6 +8803,12 @@
           <t>2-s2.0-84937822714</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2036</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8792,6 +9024,12 @@
           <t>2-s2.0-84937947544</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3086</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8999,6 +9237,12 @@
           <t>2-s2.0-84937906923</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2605</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9222,6 +9466,12 @@
           <t>2-s2.0-84938271512</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>655</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9433,6 +9683,12 @@
           <t>2-s2.0-84938268707</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>379</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9656,6 +9912,12 @@
           <t>2-s2.0-84938772909</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9863,6 +10125,12 @@
           <t>2-s2.0-84940515777</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>884</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10078,6 +10346,12 @@
           <t>2-s2.0-84936152907</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>981</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10299,6 +10573,12 @@
           <t>2-s2.0-84936943659</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1021</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10522,6 +10802,12 @@
           <t>2-s2.0-84937039785</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>8263</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10747,6 +11033,12 @@
           <t>2-s2.0-84937951573</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>791</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10966,6 +11258,12 @@
           <t>2-s2.0-84929328048</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1112</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11173,6 +11471,12 @@
           <t>2-s2.0-84929314041</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1070</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11388,6 +11692,12 @@
           <t>2-s2.0-84929314183</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>754</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11595,6 +11905,12 @@
           <t>2-s2.0-84929335825</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>887</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11814,6 +12130,12 @@
           <t>2-s2.0-84929314034</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>914</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12029,6 +12351,12 @@
           <t>2-s2.0-84929324096</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1076</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12244,6 +12572,12 @@
           <t>2-s2.0-84930003381</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>635</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12451,6 +12785,12 @@
           <t>2-s2.0-84929989890</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12658,6 +12998,12 @@
           <t>2-s2.0-84929629319</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2115</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12869,6 +13215,12 @@
           <t>2-s2.0-84929990083</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1531</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13092,6 +13444,12 @@
           <t>2-s2.0-84930216379</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13311,6 +13669,12 @@
           <t>2-s2.0-84930635008</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1371</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13526,6 +13890,12 @@
           <t>2-s2.0-84931260798</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13733,6 +14103,12 @@
           <t>2-s2.0-84931268894</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>902</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13944,6 +14320,12 @@
           <t>2-s2.0-84937821049</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>415</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14159,6 +14541,12 @@
           <t>2-s2.0-84935015433</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1157</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14378,6 +14766,12 @@
           <t>2-s2.0-84935027801</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>907</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14585,6 +14979,12 @@
           <t>2-s2.0-84932651441</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>822</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14807,6 +15207,12 @@
         <is>
           <t>2-s2.0-84929247193</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>700</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -14991,6 +15397,12 @@
           <t>2-s2.0-84952034562</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>365</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15186,6 +15598,12 @@
           <t>2-s2.0-84951925388</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>315</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15401,6 +15819,12 @@
           <t>2-s2.0-84920624124</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2705</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15624,6 +16048,12 @@
           <t>2-s2.0-84925004619</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>757</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15839,6 +16269,12 @@
           <t>2-s2.0-84924032309</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1287</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16062,6 +16498,12 @@
           <t>2-s2.0-84922875879</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>553</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16273,6 +16715,12 @@
           <t>2-s2.0-84925431434</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16488,6 +16936,12 @@
           <t>2-s2.0-84925308398</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>973</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16691,6 +17145,12 @@
           <t>2-s2.0-84920897476</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>798</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16898,6 +17358,12 @@
           <t>2-s2.0-84949926227</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1458</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17113,6 +17579,12 @@
           <t>2-s2.0-84983574260</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>554</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17316,6 +17788,12 @@
           <t>2-s2.0-84937906233</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1202</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17519,6 +17997,12 @@
           <t>2-s2.0-84983094793</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>558</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17730,6 +18214,12 @@
           <t>2-s2.0-85029313358</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1039</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17951,6 +18441,12 @@
           <t>2-s2.0-84947865987</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18170,6 +18666,12 @@
           <t>2-s2.0-84947869210</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>528</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18377,6 +18879,12 @@
           <t>2-s2.0-84949922430</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>718</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18592,6 +19100,12 @@
           <t>2-s2.0-84951917276</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>621</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18815,6 +19329,12 @@
           <t>2-s2.0-84988041769</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1031</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19020,6 +19540,12 @@
           <t>2-s2.0-84949923411</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1181</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19231,6 +19757,12 @@
           <t>2-s2.0-84947862878</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1231</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19450,6 +19982,12 @@
           <t>2-s2.0-84919498719</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19661,6 +20199,12 @@
           <t>2-s2.0-84938069879</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>1266</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19876,6 +20420,12 @@
           <t>2-s2.0-84928566606</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>696</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20099,6 +20649,12 @@
           <t>2-s2.0-84952029570</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>756</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20322,6 +20878,12 @@
           <t>2-s2.0-84949923478</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>373</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20533,6 +21095,12 @@
           <t>2-s2.0-84929486179</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20748,6 +21316,12 @@
           <t>2-s2.0-84948089886</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>500</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20963,6 +21537,12 @@
           <t>2-s2.0-84947863526</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>672</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21186,6 +21766,12 @@
           <t>2-s2.0-84951975848</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>565</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21405,6 +21991,12 @@
           <t>2-s2.0-84914141820</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>682</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21612,6 +22204,12 @@
           <t>2-s2.0-84919664006</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>941</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21823,6 +22421,12 @@
           <t>2-s2.0-84919608808</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>825</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22034,6 +22638,12 @@
           <t>2-s2.0-84983094383</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22249,6 +22859,12 @@
           <t>2-s2.0-85017502510</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>790</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22474,6 +23090,12 @@
           <t>2-s2.0-84983123410</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>4467</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22681,6 +23303,12 @@
           <t>2-s2.0-84943378072</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>543</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22896,6 +23524,12 @@
           <t>2-s2.0-84949926198</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>375</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23099,6 +23733,12 @@
           <t>2-s2.0-84949922522</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>676</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23322,6 +23962,12 @@
           <t>2-s2.0-84947864115</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1091</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23541,6 +24187,12 @@
           <t>2-s2.0-84929407128</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1453</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23748,6 +24400,12 @@
           <t>2-s2.0-84923320577</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1037</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23971,6 +24629,12 @@
           <t>2-s2.0-84920842653</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1232</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24194,6 +24858,12 @@
           <t>2-s2.0-84948382174</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>777</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24413,6 +25083,12 @@
           <t>2-s2.0-84977579688</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1633</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24636,6 +25312,12 @@
           <t>2-s2.0-84947864040</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>952</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24851,6 +25533,12 @@
           <t>2-s2.0-84942546749</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>735</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25066,6 +25754,12 @@
           <t>2-s2.0-84983123460</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>586</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25289,6 +25983,12 @@
           <t>2-s2.0-84924699908</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>2361</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25492,6 +26192,12 @@
           <t>2-s2.0-84924814142</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>468</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25699,6 +26405,12 @@
           <t>2-s2.0-84924858615</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>856</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25914,6 +26626,12 @@
           <t>2-s2.0-84928309371</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>3266</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26129,6 +26847,12 @@
           <t>2-s2.0-84925359801</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>741</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26340,6 +27064,12 @@
           <t>2-s2.0-84925651931</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>622</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26555,6 +27285,12 @@
           <t>2-s2.0-84925690056</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>277</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26780,6 +27516,12 @@
           <t>2-s2.0-84926354972</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>1751</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26995,6 +27737,12 @@
           <t>2-s2.0-84927749633</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>2104</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27210,6 +27958,12 @@
           <t>2-s2.0-84927762134</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>582</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27425,6 +28179,12 @@
           <t>2-s2.0-84927716498</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>2039</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27640,6 +28400,12 @@
           <t>2-s2.0-84927765207</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27851,6 +28617,12 @@
           <t>2-s2.0-84941279812</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>498</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28066,6 +28838,12 @@
           <t>2-s2.0-84941557272</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>1852</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28281,6 +29059,12 @@
           <t>2-s2.0-84941274606</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28488,6 +29272,12 @@
           <t>2-s2.0-84941264725</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>439</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28710,6 +29500,12 @@
         <is>
           <t>2-s2.0-84941285160</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>2510</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -28894,6 +29690,12 @@
           <t>2-s2.0-84941274556</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>231</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29109,6 +29911,12 @@
           <t>2-s2.0-84941277640</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29320,6 +30128,12 @@
           <t>2-s2.0-84948994062</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>668</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29535,6 +30349,12 @@
           <t>2-s2.0-84919458836</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>549</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29738,6 +30558,12 @@
           <t>2-s2.0-84941265951</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>1898</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29949,6 +30775,12 @@
           <t>2-s2.0-84941267453</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>2673</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30164,6 +30996,12 @@
           <t>2-s2.0-84927138922</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>665</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30371,6 +31209,12 @@
           <t>2-s2.0-84949319092</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>731</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30590,6 +31434,12 @@
           <t>2-s2.0-84941285035</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>9104</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30797,6 +31647,12 @@
           <t>2-s2.0-84949322884</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1189</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31000,6 +31856,12 @@
           <t>2-s2.0-84949321401</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>933</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31211,6 +32073,12 @@
           <t>2-s2.0-84919667660</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>877</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31414,6 +32282,12 @@
           <t>2-s2.0-84949320033</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>1003</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31623,6 +32497,12 @@
           <t>2-s2.0-84949322336</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>867</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31838,6 +32718,12 @@
           <t>2-s2.0-84924788150</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>2883</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32061,6 +32947,12 @@
           <t>2-s2.0-84925448768</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1033</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32280,6 +33172,12 @@
           <t>2-s2.0-84925676827</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>635</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32495,6 +33393,12 @@
           <t>2-s2.0-84927755844</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>695</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32710,6 +33614,12 @@
           <t>2-s2.0-84928107380</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>638</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32925,6 +33835,12 @@
           <t>2-s2.0-84928170247</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33140,6 +34056,12 @@
           <t>2-s2.0-84941281768</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>1251</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33355,6 +34277,12 @@
           <t>2-s2.0-84941269962</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>1352</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33562,6 +34490,12 @@
           <t>2-s2.0-84941264866</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>1889</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33777,6 +34711,12 @@
           <t>2-s2.0-84941282442</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33992,6 +34932,12 @@
           <t>2-s2.0-84949314480</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>940</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34215,6 +35161,12 @@
           <t>2-s2.0-84921519072</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>1376</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34422,6 +35374,12 @@
           <t>2-s2.0-84921532376</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34637,6 +35595,12 @@
           <t>2-s2.0-84921452830</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34844,6 +35808,12 @@
           <t>2-s2.0-84925048732</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>2603</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35067,6 +36037,12 @@
           <t>2-s2.0-84921763005</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>1265</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35290,6 +36266,12 @@
           <t>2-s2.0-84921790768</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>745</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35501,6 +36483,12 @@
           <t>2-s2.0-84921899606</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>744</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35712,6 +36700,12 @@
           <t>2-s2.0-84921921076</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>651</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35935,6 +36929,12 @@
           <t>2-s2.0-84921899070</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1865</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36158,6 +37158,12 @@
           <t>2-s2.0-84922229193</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>2279</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36381,6 +37387,12 @@
           <t>2-s2.0-84922229958</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>2248</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36592,6 +37604,12 @@
           <t>2-s2.0-84922368306</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>2152</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36799,6 +37817,12 @@
           <t>2-s2.0-84922373061</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>703</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37006,6 +38030,12 @@
           <t>2-s2.0-84922464448</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>851</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37221,6 +38251,12 @@
           <t>2-s2.0-84923040567</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>683</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37436,6 +38472,12 @@
           <t>2-s2.0-84923083637</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37643,6 +38685,12 @@
           <t>2-s2.0-84949979883</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>2648</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37858,6 +38906,12 @@
           <t>2-s2.0-84923912069</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>1713</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38073,6 +39127,12 @@
           <t>2-s2.0-84928390149</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>760</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38287,6 +39347,12 @@
         <is>
           <t>2-s2.0-84956702200</t>
         </is>
+      </c>
+      <c r="BT177" t="n">
+        <v>880</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -38475,6 +39541,12 @@
           <t>2-s2.0-84956509296</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>186</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38694,6 +39766,12 @@
           <t>2-s2.0-84921396565</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38909,6 +39987,12 @@
           <t>2-s2.0-84921450079</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39124,6 +40208,12 @@
           <t>2-s2.0-84921758412</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>1076</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39339,6 +40429,12 @@
           <t>2-s2.0-84922357758</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>1321</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39554,6 +40650,12 @@
           <t>2-s2.0-84910017198</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>886</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39773,6 +40875,12 @@
           <t>2-s2.0-84911904943</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>1226</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39992,6 +41100,12 @@
           <t>2-s2.0-84911940844</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>1084</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40203,6 +41317,12 @@
           <t>2-s2.0-84911927528</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>2434</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40410,6 +41530,12 @@
           <t>2-s2.0-84911890151</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>4878</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40625,6 +41751,12 @@
           <t>2-s2.0-84919933395</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>2085</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40840,6 +41972,12 @@
           <t>2-s2.0-84919884296</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>932</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41055,6 +42193,12 @@
           <t>2-s2.0-84949135748</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>767</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41270,6 +42414,12 @@
           <t>2-s2.0-84949117262</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>1086</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41481,6 +42631,12 @@
           <t>2-s2.0-84949117050</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>1498</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41692,6 +42848,12 @@
           <t>2-s2.0-84949127559</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41899,6 +43061,12 @@
           <t>2-s2.0-84916884289</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>813</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42102,6 +43270,12 @@
           <t>2-s2.0-84916910550</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>2121</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42327,6 +43501,12 @@
           <t>2-s2.0-84919948464</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>1262</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42542,6 +43722,12 @@
           <t>2-s2.0-84919941213</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>832</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42749,6 +43935,12 @@
           <t>2-s2.0-84919880754</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>588</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42956,6 +44148,12 @@
           <t>2-s2.0-84919709420</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>1515</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43163,6 +44361,12 @@
           <t>2-s2.0-84920065305</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>1245</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43378,6 +44582,12 @@
           <t>2-s2.0-84920197355</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>801</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43593,6 +44803,12 @@
           <t>2-s2.0-84920170455</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>885</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43810,6 +45026,12 @@
           <t>2-s2.0-84920929974</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>2270</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44033,6 +45255,12 @@
           <t>2-s2.0-84920886576</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>390</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44248,6 +45476,12 @@
           <t>2-s2.0-84920917089</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>794</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44467,6 +45701,12 @@
           <t>2-s2.0-84920921170</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>1119</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44674,6 +45914,12 @@
           <t>2-s2.0-84920946471</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>456</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -44889,6 +46135,12 @@
           <t>2-s2.0-84920997308</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>693</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45108,6 +46360,12 @@
           <t>2-s2.0-84921031073</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>2665</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45322,6 +46580,12 @@
         <is>
           <t>2-s2.0-84921022139</t>
         </is>
+      </c>
+      <c r="BT210" t="n">
+        <v>622</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="211">
@@ -45506,6 +46770,12 @@
           <t>2-s2.0-84921516898</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>217</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45721,6 +46991,12 @@
           <t>2-s2.0-84912012345</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>1263</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -45944,6 +47220,12 @@
           <t>2-s2.0-84912032677</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46167,6 +47449,12 @@
           <t>2-s2.0-84917673337</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>1230</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
